--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H2">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>4.636915913161555</v>
+        <v>3.388948832153555</v>
       </c>
       <c r="R2">
-        <v>41.732243218454</v>
+        <v>30.500539489382</v>
       </c>
       <c r="S2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="T2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H3">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
         <v>0.001671183588666667</v>
@@ -641,10 +641,10 @@
         <v>0.015040652298</v>
       </c>
       <c r="S3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="T3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H4">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>0.1404001675117778</v>
+        <v>0.1145712294026667</v>
       </c>
       <c r="R4">
-        <v>1.263601507606</v>
+        <v>1.031141064624</v>
       </c>
       <c r="S4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="T4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H5">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>0.02645474628311112</v>
+        <v>0.002351601257111111</v>
       </c>
       <c r="R5">
-        <v>0.238092716548</v>
+        <v>0.021164411314</v>
       </c>
       <c r="S5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="T5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H6">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>0.02753727833044445</v>
+        <v>0.04665746499555555</v>
       </c>
       <c r="R6">
-        <v>0.247835504974</v>
+        <v>0.41991718496</v>
       </c>
       <c r="S6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="T6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03326466666666667</v>
+        <v>0.03326466666666666</v>
       </c>
       <c r="H7">
-        <v>0.09979400000000001</v>
+        <v>0.09979399999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>0.2028926117806667</v>
+        <v>0.1546860556113333</v>
       </c>
       <c r="R7">
-        <v>1.826033506026</v>
+        <v>1.392174500502</v>
       </c>
       <c r="S7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="T7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
     </row>
   </sheetData>
